--- a/wijzigingsvoorstel/media/20180817_IMGeo2018_classificaties_concept_wijzigingsvoorstel.xlsx
+++ b/wijzigingsvoorstel/media/20180817_IMGeo2018_classificaties_concept_wijzigingsvoorstel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\GitHub\Geonovum\IMGeo2018\wijzigingsvoorstel\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C33A066-EC09-42E2-8574-32AD30241ABE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9921D0F6-C8AF-4A28-B425-EE132A2EE184}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21528" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="596">
   <si>
     <t>Object</t>
   </si>
@@ -1308,15 +1308,6 @@
     <t>woonwagen</t>
   </si>
   <si>
-    <t>grensbord</t>
-  </si>
-  <si>
-    <t>kunstwerknaambord</t>
-  </si>
-  <si>
-    <t>mottobord</t>
-  </si>
-  <si>
     <t>pictogram</t>
   </si>
   <si>
@@ -1326,9 +1317,6 @@
     <t>dynamisch informatiepaneel</t>
   </si>
   <si>
-    <t>hondenpoeppaal</t>
-  </si>
-  <si>
     <t>strandpaal</t>
   </si>
   <si>
@@ -1360,9 +1348,6 @@
   </si>
   <si>
     <t>verkeersregelinstallatiekast</t>
-  </si>
-  <si>
-    <t>Paal met daarop een bord voor het aangeven van de grens van een uitlaatplaats waar een hond zijn behoefte kan mag doen waarbij geen opruimplicht bestaat.</t>
   </si>
   <si>
     <t>Paal op het strand of in de duinen, geplaatst als hulpmiddel bij het uitvoeren van metingen.</t>
@@ -1405,71 +1390,15 @@
     </r>
   </si>
   <si>
-    <t>perkoenenrij</t>
-  </si>
-  <si>
-    <t>lijn</t>
-  </si>
-  <si>
-    <t>infiltratiekrat</t>
-  </si>
-  <si>
-    <t>vlak</t>
-  </si>
-  <si>
     <t>hellingbaan</t>
   </si>
   <si>
-    <t>overstortconstructie</t>
-  </si>
-  <si>
-    <t>grindkoffer</t>
-  </si>
-  <si>
     <t>watertrap</t>
   </si>
   <si>
-    <t>lijn of vlak</t>
-  </si>
-  <si>
-    <t>groeiplaatsinrichting</t>
-  </si>
-  <si>
-    <r>
-      <t>Lijn</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of vlak</t>
-    </r>
-  </si>
-  <si>
     <t>sluiscomplex</t>
   </si>
   <si>
-    <r>
-      <t>Punt</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of Lijn</t>
-    </r>
-  </si>
-  <si>
     <t>scootmobielberging</t>
   </si>
   <si>
@@ -1479,9 +1408,6 @@
     <t>blok</t>
   </si>
   <si>
-    <t>voegovergang</t>
-  </si>
-  <si>
     <t>actieve wegmarkering</t>
   </si>
   <si>
@@ -1491,12 +1417,6 @@
     <t>band</t>
   </si>
   <si>
-    <t>Punt of Vlak</t>
-  </si>
-  <si>
-    <t>plant</t>
-  </si>
-  <si>
     <t>centrale verdeelkast</t>
   </si>
   <si>
@@ -1513,9 +1433,6 @@
   </si>
   <si>
     <t>infiltratiereservoir</t>
-  </si>
-  <si>
-    <t>zuiveringsreservoir</t>
   </si>
   <si>
     <t>parkeergarage</t>
@@ -1552,21 +1469,12 @@
     <t>fauna-inspectieput</t>
   </si>
   <si>
-    <t>faunatunnel</t>
-  </si>
-  <si>
-    <t>Een doorgang onder lijnvormige infrastructurele werken, met als doel het opheffen van barrières en het mogelijk maken van migratie van middelgrote tot grote fauna tussen en/of binnen leefgebieden en populaties.</t>
-  </si>
-  <si>
     <t>hulp- en waarschuwingsverlichting</t>
   </si>
   <si>
     <t>stapsteen</t>
   </si>
   <si>
-    <t>parkeerautomaat</t>
-  </si>
-  <si>
     <t>luidspreker</t>
   </si>
   <si>
@@ -1597,12 +1505,6 @@
     <t>aanrijbeschermer</t>
   </si>
   <si>
-    <t>bermplank</t>
-  </si>
-  <si>
-    <t>Benaming voor opstaande borden (of betonnen platen) langs de rijbanen van verkeerswegen dienende om die banen duidelijk te markeren, inz. bij donker weer.</t>
-  </si>
-  <si>
     <t>Kunstmatige lichtbron, dat door zijn kleur en toestand een status aangeeft of een commando aanduidt. Veelal toegepast voor het waarschuwen of reguleren van verkeer.</t>
   </si>
   <si>
@@ -1646,22 +1548,6 @@
   </si>
   <si>
     <t>Object met als functie het doorrijden van een voertuig te voorkomen om een object (bijvoorbeeld een boom) te beschermen tegen schade. Veelal is het een constructie van een gebogen metalen buis, andere vormen en materialen zijn ook mogelijk (bijvoorbeeld biggenrug)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Punt of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lijn</t>
-    </r>
   </si>
   <si>
     <t>rammelstrook</t>
@@ -1801,73 +1687,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Lijn of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>vlak</t>
-    </r>
-  </si>
-  <si>
-    <t>onderdoorgang</t>
-  </si>
-  <si>
-    <t>Korte ongelijkvloerse verbinding die bestemd is voor wegverkeer onder een weg of spoorweg door.</t>
-  </si>
-  <si>
-    <t>tunnel</t>
-  </si>
-  <si>
-    <t>brandblusinstallatie</t>
-  </si>
-  <si>
-    <t>Een krat met waterdoorlatende wanden bestemd voor de inzameling van hemelwater, waarbij het hemelwater door middel van infiltratie door de wanden kan worden afgevoerd</t>
-  </si>
-  <si>
-    <t>Rij rondhouten palen van dennen- of eikenhout.</t>
-  </si>
-  <si>
-    <t>Installatie voor het bestrijden van brand. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Punt of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Vlak</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>meerpaal</t>
     </r>
     <r>
@@ -1913,21 +1732,9 @@
     <t>Een reservoir met waterdoorlatende wanden voor de tijdelijke berging van hemelwater, waarbij het hemelwater door middel van infiltratie door de wanden kan worden afgevoerd  </t>
   </si>
   <si>
-    <t>Een reservoir voor het zuiveren van afvalwater</t>
-  </si>
-  <si>
     <t>Constructiedeel, bestaande uit een beloopbare en berijdbare helling inclusief de bijbehorende bordessen, voor het overbruggen van hoogteverschillen</t>
   </si>
   <si>
-    <t>Een constructie voorzien van een overstortdrempel met een ontworpen drempelbreedte en -hoogte.</t>
-  </si>
-  <si>
-    <t>Trapvormige constructie in een waterloop, bedoeld als sierelement om het water over naar beneden te laten stromen.</t>
-  </si>
-  <si>
-    <t>Eén of meer voorzieningen, ondergronds of op maaiveld, onder of rond een boom met als doel het verbeteren van de groeiomstandigheden.</t>
-  </si>
-  <si>
     <t>Gebied of complex met alle bij een sluis behorende gronden, inrichtingen en bouwwerken.</t>
   </si>
   <si>
@@ -1937,15 +1744,6 @@
     <t>Gebied of complex met alle bij een stuw behorende gronden, inrichtingen en bouwwerken.</t>
   </si>
   <si>
-    <t>Een bord welke de toegang of uitgang aangeeft tot de provincie dan wel tot bijzondere streken of gemeenten.</t>
-  </si>
-  <si>
-    <t>Bord of plaat bevestigd op of bij een kunstwerk met daarop de naam van het kunstwerk.</t>
-  </si>
-  <si>
-    <t>Een bord met daarop specifieke motto informatie, zoals bijvoorbeeld snelheidsacties</t>
-  </si>
-  <si>
     <t>Symbool of afbeelding dat de plaats inneemt van een tekst, het gebruik ervan wordt daarom ook beeldtaal genoemd.</t>
   </si>
   <si>
@@ -1970,9 +1768,6 @@
     <t>Deksel van een put op ondergrondse faunavoorziening met als doel inspectie van de voorziening mogeljk te maken.</t>
   </si>
   <si>
-    <t>Verkoopautomaat die op straat of in een parkeergarage staat waar men parkeerbelasting moet betalen om te parkeren.</t>
-  </si>
-  <si>
     <t>Zuil waarop informatie geraadpleegd kan worden.</t>
   </si>
   <si>
@@ -1985,22 +1780,13 @@
     <t>Drijvende constructie met beplanting langs oevers waar geen natuurlijke oever mogelijk is (stenen of stalen wanden)</t>
   </si>
   <si>
-    <t>Blokvormig element, meestal van beton of steen, bedoeld om een openbare ruimte te verfraaien, achterliggende gebieden te beschermen of te dienen als zit- of speelelement.</t>
-  </si>
-  <si>
     <t>In of op het wegdek aangebrachte lichtelementen die voor de weggebruiker bij duisternis het verloop van de weg zichtbaar maken, ook buiten het bereik van koplampen. / Actieve wegmarkering is een vorm van verkeersgeleiding in en langs wegen op plaatsen waar geen of onvoldoende straatverlichting is.</t>
   </si>
   <si>
-    <t>Constructie die een continue (weg)oppervlak vormt tussen aangrenzende hoofdconstructiedelen (bijv. brugdelen/landhoofden) en die de continuïteit van de rijbaan garandeert. Voeg (tussenstuk) in een brugdek, viaduct of weg met als doel een begaanbare overgang te vormen. Andere definities: Een voegovergang is een constructie in het wegdek, die zorgt dat de werking in de aansluiting tussen het wegdek en een kunstwerk als een viaduct, brug, duiker of fly-over kan worden opgevangen. Het zijn veelal rubberprofielen aangebracht tussen stalen randprofielen. Constructie ter overbrugging en al dan niet waterdichte afsluiting van een voeg tussen de verharding op een kunstwerk en op een aardebaan, of tussen de verharding op twee kunstwerkdelen. Voegovergangen vormen de schakel tussen wegen, viaducten en bruggen. Ze moeten het verkeer dragen, bewegingen van viaducten en bruggen opnemen, de omgeving van voegovergangen beschermen tegen gevolgschade van lekkage en geen geluidhinder veroorzaken.</t>
-  </si>
-  <si>
     <t>Bermbeveiligingsconstructie ter afscherming van een obstakel, die botsingsenergie kan absorberen en daardoor bij aanrijding voertuigen met zo weinig mogelijk schade van richting doet veranderen of tot stilstand brengt.</t>
   </si>
   <si>
     <t>Element dat de scheiding verzorgt tussen een rijbaan en het meestal hoger gelegen object. Maakt deel uit van een wegconstructie en voorkomt dat water en vuil van de weg in de bermen, tuinen, of huizen terechtkomt. Voorkomt tevens dat motorvoertuigen op het hoger gelegen object rijden.</t>
-  </si>
-  <si>
-    <t>Ondergrondse infiltratievoorziening waarbij grind wordt ingegraven in de grond en dat ervoor zorgt dat hemelwater wordt geïnfiltreerd zonder dat de bodem dichtslibt.</t>
   </si>
   <si>
     <t>Plant, heester of siergras</t>
@@ -2250,9 +2036,6 @@
     <t>IMGeo-tabel objecttypen, classificaties en geometrietypen</t>
   </si>
   <si>
-    <t>concept-versie 28 maart 2018</t>
-  </si>
-  <si>
     <t>trailerhelling</t>
   </si>
   <si>
@@ -2265,28 +2048,179 @@
     <t>basalt</t>
   </si>
   <si>
-    <t>steenbestorting</t>
-  </si>
-  <si>
-    <t>steenmatras</t>
-  </si>
-  <si>
-    <t>Open verharding bestaande uit doorgroeibare stenen elementen.</t>
-  </si>
-  <si>
-    <r>
-      <t>steenbestorting:</t>
-    </r>
+    <t>een speciaal aangelegde baan plaveisel met een afwijkende structuur die er toe dient om blinden en slechtzienden te helpen de juiste weg te volgen doordat zij zich hiermee kunnen oriënteren.</t>
+  </si>
+  <si>
+    <t>zuiveringscomplex</t>
+  </si>
+  <si>
+    <t>waterwingebied</t>
+  </si>
+  <si>
+    <t>stiltegebied</t>
+  </si>
+  <si>
+    <t>Gebied of complex met alle bij een waterzuiveringsinstallatie behorende gronden, inrichtingen en bouwwerken.</t>
+  </si>
+  <si>
+    <t>Gebied waar waterwinning plaatsvindt ten behoeve van drinkwater door onttrekking van grondwater.</t>
+  </si>
+  <si>
+    <t>Gebied is een milieubeschermingsgebied waarin de geluiden van flora en fauna overheersen..</t>
+  </si>
+  <si>
+    <t>Kunstmatige lichtbron waarmee de doorvaart van kunstwerken wordt gereguleerd.</t>
+  </si>
+  <si>
+    <t>seinlicht</t>
+  </si>
+  <si>
+    <t>haagvak</t>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <strike/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Open verharding bestaande uit onregelmatige stukken steen.</t>
+      <t>bushalte</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> halteplaats</t>
+    </r>
+  </si>
+  <si>
+    <t>Eenvoudige stopplaats voor voertuigen van het openbaar vervoer.</t>
+  </si>
+  <si>
+    <t>solitaire plant</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lijn of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vlak</t>
+    </r>
+  </si>
+  <si>
+    <t>beregeningsinstallatie</t>
+  </si>
+  <si>
+    <t>energieaansluiting</t>
+  </si>
+  <si>
+    <t>tunnelventilatie</t>
+  </si>
+  <si>
+    <t>pompkast</t>
+  </si>
+  <si>
+    <t>PLC-kast</t>
+  </si>
+  <si>
+    <t>Punt of Lijn</t>
+  </si>
+  <si>
+    <t>vluchtheuvel</t>
+  </si>
+  <si>
+    <t>verkeersdruppel</t>
+  </si>
+  <si>
+    <t>Verkeerseiland dat is uitgevoerd als verhoging.</t>
+  </si>
+  <si>
+    <t>vlonder</t>
+  </si>
+  <si>
+    <t>valondergrond</t>
+  </si>
+  <si>
+    <t>verkeersaansluiting</t>
+  </si>
+  <si>
+    <t>verkeersknooppunt</t>
+  </si>
+  <si>
+    <t>verkeerskruispunt</t>
+  </si>
+  <si>
+    <t>verkeerszone</t>
+  </si>
+  <si>
+    <t>opstelpunt open water</t>
+  </si>
+  <si>
+    <t>snellaadstation</t>
+  </si>
+  <si>
+    <t>markeringspaal</t>
+  </si>
+  <si>
+    <t>faunaverblijfsplaats</t>
+  </si>
+  <si>
+    <t>stormanker</t>
+  </si>
+  <si>
+    <t>concept-versie 20 augustus 2018</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>puin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> steenbestorting</t>
+    </r>
+  </si>
+  <si>
+    <t>blindegeleidestrook</t>
   </si>
 </sst>
 </file>
@@ -2333,14 +2267,6 @@
     </font>
     <font>
       <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2432,6 +2358,13 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2477,7 +2410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2486,7 +2419,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2494,47 +2426,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -6041,19 +5977,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I453"/>
+  <dimension ref="A1:I458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="152" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="152" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="7" max="10" width="8.88671875" style="3"/>
     <col min="11" max="11" width="8.88671875" style="3" customWidth="1"/>
@@ -6061,53 +5997,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>599</v>
+      <c r="A1" s="24" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>600</v>
+      <c r="A2" s="27" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>597</v>
+      <c r="E3" s="18" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>593</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="A4" s="22" t="s">
+        <v>548</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -6116,7 +6052,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
@@ -6125,7 +6061,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -6134,7 +6070,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -6143,7 +6079,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
@@ -6155,7 +6091,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="22"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
@@ -6164,19 +6100,19 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
+      <c r="A12" s="22"/>
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>583</v>
+      <c r="E12" s="15" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -6188,7 +6124,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="22"/>
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
@@ -6197,19 +6133,19 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>583</v>
+      <c r="E15" s="15" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
@@ -6221,7 +6157,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="22"/>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
@@ -6230,7 +6166,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
@@ -6242,19 +6178,19 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="C19" s="1" t="s">
-        <v>601</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
@@ -6264,12 +6200,12 @@
       <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>583</v>
+      <c r="E21" s="15" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
@@ -6278,7 +6214,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
@@ -6287,7 +6223,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="23"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
@@ -6296,7 +6232,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
@@ -6305,39 +6241,39 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="7" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="23"/>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="23"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
@@ -6349,7 +6285,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="C31" s="3" t="s">
         <v>29</v>
       </c>
@@ -6358,91 +6294,91 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
+      <c r="A32" s="22"/>
       <c r="C32" s="1" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>541</v>
+      <c r="E32" s="15" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="23"/>
+      <c r="A33" s="22"/>
       <c r="C33" s="1" t="s">
-        <v>485</v>
+        <v>63</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>540</v>
+      <c r="E33" s="15" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="23"/>
-      <c r="C34" s="1" t="s">
-        <v>63</v>
+      <c r="A34" s="22"/>
+      <c r="B34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A35" s="22"/>
       <c r="C35" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="22"/>
       <c r="C36" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
+      <c r="A37" s="22"/>
       <c r="C37" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
+      <c r="A38" s="22"/>
       <c r="C38" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="23"/>
-      <c r="C39" s="3" t="s">
-        <v>35</v>
+      <c r="A39" s="22"/>
+      <c r="C39" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E39" s="15" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="23"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="3" t="s">
         <v>36</v>
       </c>
@@ -6454,7 +6390,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="23"/>
+      <c r="A41" s="22"/>
       <c r="C41" s="3" t="s">
         <v>38</v>
       </c>
@@ -6463,16 +6399,16 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="23"/>
+      <c r="A42" s="22"/>
       <c r="C42" s="3" t="s">
-        <v>39</v>
+        <v>594</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="23"/>
+      <c r="A43" s="22"/>
       <c r="C43" s="3" t="s">
         <v>40</v>
       </c>
@@ -6481,7 +6417,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="23"/>
+      <c r="A44" s="22"/>
       <c r="C44" s="3" t="s">
         <v>41</v>
       </c>
@@ -6490,22 +6426,22 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>602</v>
+        <v>556</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>585</v>
+      <c r="E45" s="15" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
+      <c r="A46" s="22"/>
       <c r="C46" s="3" t="s">
         <v>44</v>
       </c>
@@ -6514,2842 +6450,2821 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="23"/>
+      <c r="A47" s="22"/>
       <c r="C47" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>542</v>
+      <c r="E47" s="15" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="23"/>
+      <c r="A48" s="22"/>
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="22" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="23"/>
-      <c r="B50" s="20" t="s">
+      <c r="A50" s="22"/>
+      <c r="B50" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="23"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="C51" s="1" t="s">
+        <v>579</v>
+      </c>
       <c r="D51" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E51" s="15" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="22"/>
+      <c r="C52" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="22"/>
+      <c r="B53" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="23"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="23"/>
-      <c r="B54" s="3" t="s">
+      <c r="A54" s="22"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="22"/>
+      <c r="B55" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="23"/>
-      <c r="B55" s="3" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="22"/>
+      <c r="B56" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="23"/>
-      <c r="C56" s="3" t="s">
+      <c r="D56" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+      <c r="C57" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="23"/>
-      <c r="B57" s="3" t="s">
+      <c r="D57" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
+      <c r="B58" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C58" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="23"/>
-      <c r="C58" s="3" t="s">
+      <c r="D58" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="22"/>
+      <c r="C59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="22"/>
+      <c r="C60" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="23"/>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="22"/>
+      <c r="C61" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="23"/>
-      <c r="C61" s="3" t="s">
+      <c r="D61" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="22"/>
+      <c r="C62" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="23"/>
-      <c r="B62" s="3" t="s">
+      <c r="D62" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="22"/>
+      <c r="B63" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C63" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="23"/>
-      <c r="C63" s="3" t="s">
+      <c r="D63" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="22"/>
+      <c r="C64" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="23"/>
-      <c r="C64" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D64" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="23"/>
+      <c r="A65" s="22"/>
       <c r="C65" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="22"/>
+      <c r="C66" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="23"/>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="22"/>
+      <c r="C67" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="23"/>
-      <c r="B67" s="3" t="s">
+      <c r="D67" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="22"/>
+      <c r="B68" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="23"/>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="22"/>
+      <c r="C69" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="23"/>
-      <c r="B69" s="3" t="s">
+      <c r="D69" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="22"/>
+      <c r="B70" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="23"/>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="22"/>
+      <c r="C71" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="23"/>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="22"/>
+      <c r="C72" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="23"/>
-      <c r="C72" s="3" t="s">
+      <c r="D72" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="22"/>
+      <c r="C73" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="23"/>
-      <c r="C73" s="3" t="s">
+      <c r="D73" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="22"/>
+      <c r="C74" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="23"/>
-      <c r="C74" s="3" t="s">
+      <c r="D74" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="22"/>
+      <c r="C75" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="23" t="s">
+      <c r="D75" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
-      <c r="B76" s="20" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="22"/>
+      <c r="B77" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="22"/>
+      <c r="B78" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
-      <c r="B78" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="23"/>
+      <c r="A79" s="22"/>
       <c r="B79" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="23"/>
+      <c r="A80" s="22"/>
       <c r="B80" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="23" t="s">
-        <v>592</v>
+      <c r="A81" s="22"/>
+      <c r="B81" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="22" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="22" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="23"/>
-      <c r="B83" s="20" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="22"/>
+      <c r="B84" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="23"/>
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="22"/>
+      <c r="B85" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="23"/>
-      <c r="B85" s="3" t="s">
+      <c r="D85" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="22"/>
+      <c r="B86" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C86" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="23"/>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="22"/>
+      <c r="C87" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="23"/>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="22"/>
+      <c r="C88" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D87" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="23"/>
-      <c r="B88" s="3" t="s">
+      <c r="D88" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="22"/>
+      <c r="B89" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C89" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="23"/>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="22"/>
+      <c r="C90" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="23"/>
-      <c r="C90" s="3" t="s">
+      <c r="D90" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="22"/>
+      <c r="C91" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D90" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="23"/>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="22"/>
+      <c r="C92" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="23"/>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="22"/>
+      <c r="C93" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="23"/>
-      <c r="C93" s="1" t="s">
-        <v>603</v>
-      </c>
       <c r="D93" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="23"/>
+      <c r="A94" s="22"/>
       <c r="C94" s="1" t="s">
-        <v>604</v>
+        <v>557</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="23"/>
+      <c r="A95" s="22"/>
       <c r="C95" s="1" t="s">
-        <v>605</v>
+        <v>558</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="29" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="23"/>
-      <c r="C96" s="1" t="s">
-        <v>606</v>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="22"/>
+      <c r="B96" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="30" t="s">
-        <v>607</v>
-      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="23"/>
-      <c r="B97" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="A97" s="22"/>
       <c r="C97" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="23"/>
+      <c r="A98" s="22"/>
       <c r="C98" s="3" t="s">
-        <v>38</v>
+        <v>594</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="23"/>
+      <c r="A99" s="22"/>
       <c r="C99" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="23"/>
+      <c r="A100" s="22"/>
       <c r="C100" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="23"/>
-      <c r="C101" s="3" t="s">
-        <v>41</v>
+      <c r="A101" s="22"/>
+      <c r="B101" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>556</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E101" s="15" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
-      <c r="B102" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>602</v>
+      <c r="C102" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="16"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="22"/>
+      <c r="B103" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="22"/>
+      <c r="C104" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="22"/>
+      <c r="B106" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="19"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="22"/>
+      <c r="B107" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="22"/>
+      <c r="B108" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="22"/>
+      <c r="B109" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="22"/>
+      <c r="B110" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="22"/>
+      <c r="B111" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="22"/>
+      <c r="B112" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="22"/>
+      <c r="B113" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="22"/>
+      <c r="C114" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="22"/>
+      <c r="B115" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="22"/>
+      <c r="B116" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="22"/>
+      <c r="B117" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="22"/>
+      <c r="B118" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="22"/>
+      <c r="B119" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="22"/>
+      <c r="C120" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="22"/>
+      <c r="C121" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="22"/>
+      <c r="C122" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="22"/>
+      <c r="B123" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="22"/>
+      <c r="B124" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="22"/>
+      <c r="C125" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="22"/>
+      <c r="C126" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="22"/>
+      <c r="C127" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="22"/>
+      <c r="B128" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="22"/>
+      <c r="B129" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="22"/>
+      <c r="C130" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="22"/>
+      <c r="C131" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="22"/>
+      <c r="C132" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="22"/>
+      <c r="C133" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="22"/>
+      <c r="C134" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="22"/>
+      <c r="C135" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="22"/>
+      <c r="C136" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="22"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="22" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="22"/>
+      <c r="B140" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="22"/>
+      <c r="B141" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="22"/>
+      <c r="B142" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="22"/>
+      <c r="C143" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="22"/>
+      <c r="C144" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="22"/>
+      <c r="C145" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="22"/>
+      <c r="C146" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="22"/>
+      <c r="C147" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="22"/>
+      <c r="B148" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="22"/>
+      <c r="C149" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="22"/>
+      <c r="B150" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="22"/>
+      <c r="B152" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C152" s="19"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="22"/>
+      <c r="B153" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="22"/>
+      <c r="B154" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="22"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="22" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I157" s="11"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="22"/>
+      <c r="B158" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C158" s="20"/>
+      <c r="D158" s="20"/>
+      <c r="I158" s="11"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="22"/>
+      <c r="I159" s="11"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I160" s="11"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" s="22"/>
+      <c r="B161" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="I161" s="11"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" s="22"/>
+      <c r="B162" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I162" s="11"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" s="22"/>
+      <c r="B163" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I163" s="11"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" s="22"/>
+      <c r="B164" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I164" s="11"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" s="22"/>
+      <c r="B165" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I165" s="11"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" s="22"/>
+      <c r="B166" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G166" s="1"/>
+      <c r="I166" s="11"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" s="22"/>
+      <c r="B167" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" s="22"/>
+      <c r="B168" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G168" s="5"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" s="22"/>
+      <c r="B169" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" s="22"/>
+      <c r="B170" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" s="22"/>
+      <c r="B171" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" s="22"/>
+      <c r="B172" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="22"/>
+      <c r="B173" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="22"/>
+      <c r="B174" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" s="15" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" s="22"/>
+      <c r="B175" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" s="15" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="22"/>
+      <c r="B176" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="22"/>
+      <c r="B177" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" s="15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="22"/>
+      <c r="B178" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" s="15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="22"/>
+      <c r="B179" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="22" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="22"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D182" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E182" s="26"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="22"/>
+      <c r="C183" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="22"/>
+      <c r="C184" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="22"/>
+      <c r="C185" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="22"/>
+      <c r="C186" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="22"/>
+      <c r="C187" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="22"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="22"/>
+      <c r="C189" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="22"/>
+      <c r="C190" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="22"/>
+      <c r="C191" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="22"/>
+      <c r="C192" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="22"/>
+      <c r="C193" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="22"/>
+      <c r="C194" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="22"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="22"/>
+      <c r="B198" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C198" s="19"/>
+      <c r="D198" s="19"/>
+      <c r="E198" s="19"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="22"/>
+      <c r="B199" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="22"/>
+      <c r="B200" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E200" s="15" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="22"/>
+      <c r="B201" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="22"/>
+      <c r="B202" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E202" s="15" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="22"/>
+      <c r="B203" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="22"/>
+      <c r="B204" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="22"/>
+      <c r="B205" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="31"/>
+      <c r="B206" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="22"/>
+      <c r="B207" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="22"/>
+      <c r="B208" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="22"/>
+      <c r="B209" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E209" s="15" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="22"/>
+      <c r="B210" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="22"/>
+      <c r="B211" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="22"/>
+      <c r="B212" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="22"/>
+      <c r="B213" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="22"/>
+      <c r="B214" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" s="15" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="22"/>
+      <c r="B215" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="22"/>
+      <c r="B217" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C217" s="19"/>
+      <c r="D217" s="19"/>
+      <c r="E217" s="19"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="22"/>
+      <c r="B218" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="22"/>
+      <c r="B219" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="22"/>
+      <c r="B220" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="22"/>
+      <c r="B221" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="22"/>
+      <c r="B222" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="22"/>
+      <c r="B223" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="22"/>
+      <c r="B224" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="22"/>
+      <c r="B225" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="22"/>
+      <c r="D227" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="22"/>
+      <c r="B229" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C229" s="19"/>
+      <c r="D229" s="19"/>
+      <c r="E229" s="19"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="22"/>
+      <c r="B230" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="22"/>
+      <c r="B231" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="22"/>
+      <c r="B232" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="22"/>
+      <c r="B233" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="22"/>
+      <c r="B234" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="22"/>
+      <c r="B235" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="22"/>
+      <c r="B236" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" s="15" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="22"/>
+      <c r="B237" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" s="15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="22"/>
+      <c r="B238" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="22"/>
+      <c r="B239" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="24"/>
-      <c r="C103" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E103" s="17"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="23"/>
-      <c r="B104" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="23"/>
-      <c r="C105" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="23" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="23"/>
-      <c r="B107" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="23"/>
-      <c r="B108" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="23"/>
-      <c r="B109" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="23"/>
-      <c r="B110" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="23"/>
-      <c r="B111" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="23"/>
-      <c r="B112" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="23"/>
-      <c r="B113" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="23"/>
-      <c r="B114" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="23"/>
-      <c r="C115" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="23"/>
-      <c r="B116" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="23"/>
-      <c r="B117" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="23"/>
-      <c r="B118" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="23"/>
-      <c r="B119" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="23"/>
-      <c r="B120" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="23"/>
-      <c r="C121" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="23"/>
-      <c r="C122" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="23"/>
-      <c r="C123" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="23"/>
-      <c r="B124" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="23"/>
-      <c r="B125" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="23"/>
-      <c r="C126" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="23"/>
-      <c r="C127" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="23"/>
-      <c r="C128" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="23"/>
-      <c r="B129" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="23"/>
-      <c r="B130" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="23"/>
-      <c r="C131" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="23"/>
-      <c r="C132" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="23"/>
-      <c r="C133" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="23"/>
-      <c r="C134" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="23"/>
-      <c r="C135" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="23"/>
-      <c r="C136" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="23"/>
-      <c r="C137" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="23"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="23" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="23"/>
-      <c r="B141" s="20" t="s">
+      <c r="D239" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="22"/>
+      <c r="B240" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="22"/>
+      <c r="B241" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="22"/>
+      <c r="B242" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="22"/>
+      <c r="B243" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" s="15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="22"/>
+      <c r="B244" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244" s="15" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="22"/>
+      <c r="B245" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" s="15" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="22"/>
+      <c r="B246" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246" s="28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="22"/>
+      <c r="B247" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247" s="28" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A248" s="22"/>
+      <c r="B248" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E248" s="29" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="22"/>
+      <c r="B249" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="22"/>
+      <c r="B250" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="22"/>
+      <c r="B251" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="22"/>
+      <c r="B252" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="22"/>
+      <c r="B253" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="22"/>
+      <c r="B254" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="22"/>
+      <c r="B255" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="22"/>
+      <c r="B256" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="22"/>
+      <c r="B257" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="22"/>
+      <c r="B258" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="22"/>
+      <c r="B259" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="22"/>
+      <c r="B260" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="22"/>
+      <c r="B261" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="22"/>
+      <c r="B262" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="22"/>
+      <c r="B263" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" s="15" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="22"/>
+      <c r="B264" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="22"/>
+      <c r="B265" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="22"/>
+      <c r="B266" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="22"/>
+      <c r="B267" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="22"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="22"/>
+      <c r="B270" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C270" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D270" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="22"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="22"/>
+      <c r="B272" s="19"/>
+      <c r="C272" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C141" s="20"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="23"/>
-      <c r="B142" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="23"/>
-      <c r="B143" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="23"/>
-      <c r="C144" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="23"/>
-      <c r="C145" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="23"/>
-      <c r="C146" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="23"/>
-      <c r="C147" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="23"/>
-      <c r="C148" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="23"/>
-      <c r="B149" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="23"/>
-      <c r="C150" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A151" s="23"/>
-      <c r="B151" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="23"/>
-      <c r="B153" s="20" t="s">
+      <c r="D272" s="19"/>
+      <c r="E272" s="19"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="22"/>
+      <c r="B274" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="22"/>
+      <c r="B275" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="22"/>
+      <c r="B276" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="22"/>
+      <c r="B277" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="22"/>
+      <c r="B278" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="22"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="22"/>
+      <c r="B280" s="19"/>
+      <c r="C280" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="23"/>
-      <c r="B154" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="23"/>
-      <c r="B155" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="23"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="23" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="I158" s="12"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="23"/>
-      <c r="B159" s="21" t="s">
+      <c r="D280" s="19"/>
+      <c r="E280" s="19"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="22"/>
+      <c r="B282" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="22"/>
+      <c r="B283" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="22"/>
+      <c r="B284" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="22"/>
+      <c r="B285" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="22"/>
+      <c r="B286" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="22"/>
+      <c r="B287" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="22"/>
+      <c r="B288" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E288" s="15" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="22"/>
+      <c r="B289" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E289" s="15" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="22"/>
+      <c r="B290" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="22"/>
+      <c r="B291" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="22"/>
+      <c r="B292" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A293" s="22"/>
+      <c r="B293" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E293" s="15" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="22"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="22"/>
+      <c r="B295" s="19"/>
+      <c r="C295" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C159" s="21"/>
-      <c r="D159" s="21"/>
-      <c r="I159" s="12"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="23"/>
-      <c r="I160" s="12"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="I161" s="12"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" s="23"/>
-      <c r="B162" s="20" t="s">
+      <c r="D295" s="19"/>
+      <c r="E295" s="19"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="22"/>
+      <c r="B297" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="22"/>
+      <c r="B298" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="22"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="22"/>
+      <c r="B300" s="19"/>
+      <c r="C300" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C162" s="20"/>
-      <c r="D162" s="20"/>
-      <c r="E162" s="20"/>
-      <c r="I162" s="12"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="23"/>
-      <c r="B163" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I163" s="12"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="23"/>
-      <c r="B164" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I164" s="12"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="23"/>
-      <c r="B165" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I165" s="12"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="23"/>
-      <c r="B166" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I166" s="12"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A167" s="23"/>
-      <c r="B167" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G167" s="1"/>
-      <c r="I167" s="12"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168" s="23"/>
-      <c r="B168" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G168" s="1"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="23"/>
-      <c r="B169" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G169" s="5"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170" s="23"/>
-      <c r="B170" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A171" s="23"/>
-      <c r="B171" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172" s="23"/>
-      <c r="B172" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E172" s="16" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="23"/>
-      <c r="B173" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E173" s="16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="23"/>
-      <c r="B174" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A175" s="23"/>
-      <c r="B175" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" s="23"/>
-      <c r="B176" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E176" s="16" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="23"/>
-      <c r="B177" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E177" s="16" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="23"/>
-      <c r="B178" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C178" s="1" t="s">
+      <c r="D300" s="19"/>
+      <c r="E300" s="19"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="22"/>
+      <c r="B302" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="22"/>
+      <c r="B303" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="22"/>
+      <c r="B304" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="22"/>
+      <c r="B305" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="22"/>
+      <c r="B306" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E306" s="15" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="22"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="22"/>
+      <c r="B308" s="19"/>
+      <c r="C308" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D308" s="19"/>
+      <c r="E308" s="19"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="22"/>
+      <c r="B310" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="22"/>
+      <c r="B311" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="22"/>
+      <c r="B312" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="22"/>
+      <c r="B313" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="22"/>
+      <c r="B314" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="22"/>
+      <c r="B315" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C315" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="D178" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E178" s="16" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="23"/>
-      <c r="B179" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="23"/>
-      <c r="B180" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="23"/>
-      <c r="B181" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="23" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="23" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="23"/>
-      <c r="B184" s="20"/>
-      <c r="C184" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D184" s="20" t="s">
+      <c r="D315" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="22"/>
+      <c r="B316" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="22"/>
+      <c r="B317" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="22"/>
+      <c r="B318" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E318" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="22"/>
+      <c r="B319" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E319" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="E184" s="27"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="23"/>
-      <c r="C185" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="23"/>
-      <c r="C186" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="23"/>
-      <c r="C187" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="23"/>
-      <c r="C188" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="23"/>
-      <c r="C189" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="23"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="23"/>
-      <c r="C191" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="23"/>
-      <c r="C192" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="23"/>
-      <c r="C193" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="23"/>
-      <c r="C194" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="23"/>
-      <c r="C195" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="23"/>
-      <c r="C196" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="23"/>
-      <c r="B198" s="20" t="s">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="22"/>
+      <c r="B320" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="22"/>
+      <c r="B321" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="22"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="22"/>
+      <c r="B323" s="19"/>
+      <c r="C323" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C198" s="20"/>
-      <c r="D198" s="20"/>
-      <c r="E198" s="20"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="23"/>
-      <c r="B199" s="6" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A200" s="23"/>
-      <c r="B200" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E200" s="16" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="23"/>
-      <c r="B201" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E201" s="16" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="23"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="23"/>
-      <c r="B204" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C204" s="20"/>
-      <c r="D204" s="20"/>
-      <c r="E204" s="20"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="23"/>
-      <c r="B205" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="23"/>
-      <c r="B206" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="E206" s="16" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="23"/>
-      <c r="B207" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="23"/>
-      <c r="B208" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E208" s="16" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="23"/>
-      <c r="B209" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="23"/>
-      <c r="B210" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="23"/>
-      <c r="B211" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="23"/>
-      <c r="B212" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="23"/>
-      <c r="B213" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="23"/>
-      <c r="B214" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E214" s="16" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="23"/>
-      <c r="B215" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="23"/>
-      <c r="B216" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="23"/>
-      <c r="B217" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="23"/>
-      <c r="B218" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="23"/>
-      <c r="B219" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="23"/>
-      <c r="B220" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="23"/>
-      <c r="B221" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C221" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="D221" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="E221" s="16" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="23"/>
-      <c r="B222" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C222" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="E222" s="16" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="23"/>
-      <c r="B223" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="E223" s="16" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="23"/>
-      <c r="B224" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="D224" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="E224" s="16" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="23"/>
-      <c r="B225" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C225" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="D225" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="E225" s="16" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="23"/>
-      <c r="B226" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C226" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="E226" s="16" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="23"/>
-      <c r="B227" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="E227" s="16" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="23"/>
-      <c r="B229" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C229" s="20"/>
-      <c r="D229" s="20"/>
-      <c r="E229" s="20"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="23"/>
-      <c r="B230" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="23"/>
-      <c r="B231" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="23"/>
-      <c r="B232" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="23"/>
-      <c r="B233" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="23"/>
-      <c r="B234" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="23"/>
-      <c r="B235" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="23"/>
-      <c r="B236" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="23"/>
-      <c r="B237" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="23"/>
-      <c r="D239" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="23"/>
-      <c r="B241" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C241" s="20"/>
-      <c r="D241" s="20"/>
-      <c r="E241" s="20"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="23"/>
-      <c r="B242" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A243" s="23"/>
-      <c r="B243" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E243" s="16" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="23"/>
-      <c r="B244" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E244" s="16" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="23"/>
-      <c r="B245" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E245" s="16" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="23"/>
-      <c r="B246" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E246" s="16" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="23"/>
-      <c r="B247" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E247" s="16" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="23"/>
-      <c r="B248" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="23"/>
-      <c r="B249" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="23"/>
-      <c r="B250" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C250" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="23"/>
-      <c r="B251" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C251" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="23"/>
-      <c r="B252" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="23"/>
-      <c r="B253" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="23"/>
-      <c r="B254" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="23"/>
-      <c r="B255" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C255" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="23"/>
-      <c r="B256" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A257" s="23"/>
-      <c r="B257" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A258" s="23"/>
-      <c r="B258" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A259" s="23"/>
-      <c r="B259" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A260" s="23"/>
-      <c r="B260" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C260" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A261" s="23"/>
-      <c r="B261" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C261" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A262" s="23"/>
-      <c r="B262" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C262" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A263" s="23"/>
-      <c r="B263" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A264" s="23"/>
-      <c r="B264" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A265" s="23"/>
-      <c r="B265" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A266" s="23"/>
-      <c r="B266" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C266" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A267" s="23"/>
-      <c r="B267" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C267" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A268" s="23"/>
-      <c r="B268" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A269" s="23"/>
-      <c r="B269" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A270" s="23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A271" s="23"/>
-      <c r="B271" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C271" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="D271" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A272" s="23"/>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="23"/>
-      <c r="B273" s="20"/>
-      <c r="C273" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D273" s="20"/>
-      <c r="E273" s="20"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" s="23"/>
-      <c r="B275" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="23"/>
-      <c r="B276" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="23"/>
-      <c r="B277" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="23"/>
-      <c r="B278" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="23"/>
-      <c r="B279" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="23"/>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" s="23"/>
-      <c r="B281" s="20"/>
-      <c r="C281" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D281" s="20"/>
-      <c r="E281" s="20"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C282" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="23"/>
-      <c r="B283" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C283" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E283" s="16" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="23"/>
-      <c r="B284" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C284" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" s="23"/>
-      <c r="B285" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C285" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286" s="23"/>
-      <c r="B286" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C286" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E286" s="16" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="23"/>
-      <c r="B287" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C287" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="23"/>
-      <c r="B288" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C288" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="23"/>
-      <c r="B289" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C289" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" s="23"/>
-      <c r="B290" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C290" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291" s="23"/>
-      <c r="B291" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C291" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E291" s="16" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" s="23"/>
-      <c r="B292" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C292" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E292" s="16" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="23"/>
-      <c r="B293" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C293" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E293" s="16" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294" s="23"/>
-      <c r="B294" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C294" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="23"/>
-      <c r="B295" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C295" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296" s="23"/>
-      <c r="B296" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C296" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D296" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A297" s="23"/>
-      <c r="B297" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C297" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E297" s="16" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" s="23"/>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" s="23"/>
-      <c r="B299" s="20"/>
-      <c r="C299" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D299" s="20"/>
-      <c r="E299" s="20"/>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C300" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="23"/>
-      <c r="B301" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C301" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" s="23"/>
-      <c r="B302" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C302" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303" s="23"/>
-      <c r="B303" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="D303" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E303" s="16" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="23"/>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" s="23"/>
-      <c r="B305" s="20"/>
-      <c r="C305" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D305" s="20"/>
-      <c r="E305" s="20"/>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C306" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" s="23"/>
-      <c r="B307" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C307" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" s="23"/>
-      <c r="B308" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E308" s="16" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309" s="23"/>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310" s="23"/>
-      <c r="B310" s="20"/>
-      <c r="C310" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D310" s="20"/>
-      <c r="E310" s="20"/>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A311" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C311" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" s="23"/>
-      <c r="B312" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A313" s="23"/>
-      <c r="B313" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C313" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D313" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" s="23"/>
-      <c r="B314" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C314" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A315" s="23"/>
-      <c r="B315" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C315" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" s="23"/>
-      <c r="B316" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317" s="23"/>
-      <c r="B317" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C317" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" s="23"/>
-      <c r="B318" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C318" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D318" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319" s="23"/>
-      <c r="B319" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C319" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320" s="23"/>
-      <c r="B320" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E320" s="16" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" s="23"/>
-      <c r="B321" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E321" s="16" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322" s="23"/>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="23"/>
-      <c r="B323" s="20"/>
-      <c r="C323" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D323" s="20"/>
-      <c r="E323" s="20"/>
+      <c r="D323" s="19"/>
+      <c r="E323" s="19"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" s="23" t="s">
+      <c r="A324" s="22" t="s">
         <v>232</v>
       </c>
       <c r="B324" s="3" t="s">
@@ -9363,7 +9278,7 @@
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325" s="23"/>
+      <c r="A325" s="22"/>
       <c r="B325" s="3" t="s">
         <v>59</v>
       </c>
@@ -9375,7 +9290,7 @@
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A326" s="23"/>
+      <c r="A326" s="22"/>
       <c r="B326" s="3" t="s">
         <v>59</v>
       </c>
@@ -9387,7 +9302,7 @@
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" s="23"/>
+      <c r="A327" s="22"/>
       <c r="B327" s="3" t="s">
         <v>59</v>
       </c>
@@ -9399,7 +9314,7 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" s="23"/>
+      <c r="A328" s="22"/>
       <c r="B328" s="3" t="s">
         <v>59</v>
       </c>
@@ -9411,819 +9326,813 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329" s="23"/>
+      <c r="A329" s="22"/>
       <c r="B329" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D329" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E329" s="16" t="s">
+      <c r="D329" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E329" s="15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="22"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="22"/>
+      <c r="B331" s="19"/>
+      <c r="C331" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D331" s="19"/>
+      <c r="E331" s="19"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C332" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="22"/>
+      <c r="B333" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="22"/>
+      <c r="B334" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="22"/>
+      <c r="B335" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="22"/>
+      <c r="B336" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C336" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="22"/>
+      <c r="B337" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C337" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E337" s="15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="22"/>
+      <c r="B338" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C338" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E338" s="15" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="23"/>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A331" s="23"/>
-      <c r="B331" s="20"/>
-      <c r="C331" s="20" t="s">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="22"/>
+      <c r="B339" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C339" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="22"/>
+      <c r="B340" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="22"/>
+      <c r="B341" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C341" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="22"/>
+      <c r="B342" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C342" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="22"/>
+      <c r="B343" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C343" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E343" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="22"/>
+      <c r="B344" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="22"/>
+      <c r="B345" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="22"/>
+      <c r="B346" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C346" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="22"/>
+      <c r="B347" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C347" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="22"/>
+      <c r="B348" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C348" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="22"/>
+      <c r="B349" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E349" s="15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="22"/>
+      <c r="B350" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E350" s="15" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" s="22"/>
+      <c r="B351" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E351" s="15" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" s="22"/>
+      <c r="B352" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" s="22"/>
+      <c r="B353" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" s="22"/>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" s="22"/>
+      <c r="B355" s="19"/>
+      <c r="C355" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D331" s="20"/>
-      <c r="E331" s="20"/>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="B332" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C332" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333" s="23"/>
-      <c r="B333" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C333" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" s="23"/>
-      <c r="B334" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C334" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D334" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335" s="23"/>
-      <c r="B335" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C335" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336" s="23"/>
-      <c r="B336" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C336" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" s="23"/>
-      <c r="B337" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C337" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E337" s="16" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" s="23"/>
-      <c r="B338" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C338" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D338" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E338" s="16" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339" s="23"/>
-      <c r="B339" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C339" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D339" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E339" s="16" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340" s="23"/>
-      <c r="B340" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C340" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341" s="23"/>
-      <c r="B341" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C341" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342" s="23"/>
-      <c r="B342" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C342" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343" s="23"/>
-      <c r="B343" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C343" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D343" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344" s="23"/>
-      <c r="B344" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C344" s="11" t="s">
+      <c r="D355" s="19"/>
+      <c r="E355" s="19"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" s="22"/>
+      <c r="B357" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" s="22"/>
+      <c r="B358" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" s="22"/>
+      <c r="B359" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" s="22"/>
+      <c r="B360" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" s="22"/>
+      <c r="B361" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" s="22"/>
+      <c r="B362" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" s="22"/>
+      <c r="B363" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E363" s="15" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" s="22"/>
+      <c r="B364" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E364" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="D344" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E344" s="16" t="s">
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" s="22"/>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" s="22"/>
+      <c r="B366" s="19"/>
+      <c r="C366" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D366" s="19"/>
+      <c r="E366" s="19"/>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" s="22"/>
+      <c r="B368" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" s="22"/>
+      <c r="B369" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" s="22"/>
+      <c r="B370" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" s="22"/>
+      <c r="B371" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" s="22"/>
+      <c r="B372" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" s="22"/>
+      <c r="B373" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" s="22"/>
+      <c r="B374" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A375" s="22"/>
+      <c r="B375" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" s="22"/>
+      <c r="B376" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A377" s="22"/>
+      <c r="B377" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A378" s="22"/>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A379" s="22"/>
+      <c r="B379" s="19"/>
+      <c r="C379" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D379" s="19"/>
+      <c r="E379" s="19"/>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" s="22"/>
+      <c r="B381" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A382" s="22"/>
+      <c r="B382" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" s="22"/>
+      <c r="B383" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E383" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="F383" s="3" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" s="23"/>
-      <c r="B345" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C345" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" s="23"/>
-      <c r="B346" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C346" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" s="23"/>
-      <c r="B347" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C347" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" s="23"/>
-      <c r="B348" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C348" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D348" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" s="23"/>
-      <c r="B349" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C349" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D349" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350" s="23"/>
-      <c r="B350" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C350" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E350" s="16" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351" s="23"/>
-      <c r="B351" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C351" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="D351" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E351" s="16" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352" s="23"/>
-      <c r="B352" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C352" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="D352" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E352" s="16" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353" s="23"/>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354" s="23"/>
-      <c r="B354" s="20"/>
-      <c r="C354" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D354" s="20"/>
-      <c r="E354" s="20"/>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A355" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="B355" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C355" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A356" s="23"/>
-      <c r="B356" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A357" s="23"/>
-      <c r="B357" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D357" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A358" s="23"/>
-      <c r="B358" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359" s="23"/>
-      <c r="B359" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D359" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A360" s="23"/>
-      <c r="B360" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D360" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361" s="23"/>
-      <c r="B361" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A362" s="23"/>
-      <c r="B362" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C362" s="1" t="s">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" s="22"/>
+      <c r="B384" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E384" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="D362" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E362" s="16" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" s="23"/>
-      <c r="B363" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E363" s="16" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364" s="23"/>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A365" s="23"/>
-      <c r="B365" s="20"/>
-      <c r="C365" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D365" s="20"/>
-      <c r="E365" s="20"/>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A366" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="B366" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A367" s="23"/>
-      <c r="B367" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="D367" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A368" s="23"/>
-      <c r="B368" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D368" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A369" s="23"/>
-      <c r="B369" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D369" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A370" s="23"/>
-      <c r="B370" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D370" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A371" s="23"/>
-      <c r="B371" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D371" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A372" s="23"/>
-      <c r="B372" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A373" s="23"/>
-      <c r="B373" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A374" s="23"/>
-      <c r="B374" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C374" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D374" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A375" s="23"/>
-      <c r="B375" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C375" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="D375" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A376" s="23"/>
-      <c r="B376" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D376" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A377" s="23"/>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A378" s="23"/>
-      <c r="B378" s="20"/>
-      <c r="C378" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D378" s="20"/>
-      <c r="E378" s="20"/>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A379" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="B379" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D379" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A380" s="23"/>
-      <c r="B380" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A381" s="23"/>
-      <c r="B381" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A382" s="23"/>
-      <c r="B382" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C382" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D382" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E382" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="F382" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A383" s="23"/>
-      <c r="B383" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D383" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E383" s="16" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A384" s="23"/>
-      <c r="B384" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C384" s="3" t="s">
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" s="22"/>
+      <c r="B385" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C385" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D384" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A385" s="23"/>
-      <c r="B385" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C385" s="3" t="s">
+      <c r="D385" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" s="22"/>
+      <c r="B386" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C386" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="D385" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A386" s="23"/>
-      <c r="B386" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C386" s="3" t="s">
+      <c r="D386" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" s="22"/>
+      <c r="B387" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C387" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D386" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A387" s="23"/>
-      <c r="B387" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>529</v>
-      </c>
       <c r="D387" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E387" s="18" t="s">
-        <v>591</v>
-      </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A388" s="23"/>
+      <c r="A388" s="22"/>
       <c r="B388" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C388" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E388" s="17" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" s="22"/>
+      <c r="B389" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C389" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D388" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A389" s="23"/>
-      <c r="B389" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C389" s="3" t="s">
+      <c r="D389" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" s="22"/>
+      <c r="B390" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C390" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="D389" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A390" s="23"/>
-      <c r="B390" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C390" s="3" t="s">
+      <c r="D390" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" s="22"/>
+      <c r="B391" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D390" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A391" s="23"/>
-      <c r="B391" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C391" s="3" t="s">
+      <c r="D391" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" s="22"/>
+      <c r="B392" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C392" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="D391" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A392" s="23"/>
-      <c r="B392" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>519</v>
-      </c>
       <c r="D392" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E392" s="16" t="s">
-        <v>520</v>
-      </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A393" s="23"/>
+      <c r="A393" s="22"/>
       <c r="B393" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C393" s="3" t="s">
+      <c r="C393" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E393" s="15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" s="22"/>
+      <c r="B394" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D393" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A394" s="23"/>
-      <c r="B394" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C394" s="3" t="s">
+      <c r="D394" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" s="22"/>
+      <c r="B395" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C395" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D394" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A395" s="23"/>
-      <c r="B395" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D395" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="E395" s="16" t="s">
-        <v>569</v>
+      <c r="D395" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A396" s="23"/>
+      <c r="A396" s="22"/>
       <c r="B396" s="3" t="s">
         <v>59</v>
       </c>
@@ -10235,22 +10144,22 @@
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A397" s="23"/>
+      <c r="A397" s="22"/>
       <c r="B397" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E397" s="16" t="s">
-        <v>570</v>
+      <c r="E397" s="15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A398" s="23"/>
+      <c r="A398" s="22"/>
       <c r="B398" s="3" t="s">
         <v>59</v>
       </c>
@@ -10262,19 +10171,19 @@
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A399" s="23"/>
+      <c r="A399" s="22"/>
       <c r="B399" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C399" s="7" t="s">
-        <v>598</v>
+      <c r="C399" s="6" t="s">
+        <v>553</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A400" s="23"/>
+      <c r="A400" s="22"/>
       <c r="B400" s="3" t="s">
         <v>59</v>
       </c>
@@ -10286,667 +10195,708 @@
       </c>
     </row>
     <row r="401" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A401" s="23"/>
+      <c r="A401" s="22"/>
       <c r="B401" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="D401" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="E401" s="16" t="s">
-        <v>521</v>
+      <c r="E401" s="15" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A402" s="23"/>
+      <c r="A402" s="22"/>
       <c r="B402" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C402" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E402" s="15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A403" s="22"/>
+      <c r="B403" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E403" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="F403" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404" s="22"/>
+      <c r="B404" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A405" s="22"/>
+      <c r="B405" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E405" s="15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A406" s="22"/>
+      <c r="B406" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A407" s="22"/>
+      <c r="B407" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E407" s="15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A408" s="22"/>
+      <c r="B408" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E408" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A409" s="22"/>
+      <c r="B409" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E409" s="15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A410" s="22"/>
+      <c r="B410" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E410" s="15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A411" s="22"/>
+      <c r="B411" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E411" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="D402" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E402" s="16" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A403" s="23"/>
-      <c r="B403" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="D403" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E403" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="F403" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="404" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A404" s="23"/>
-      <c r="B404" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C404" s="1" t="s">
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A412" s="22"/>
+      <c r="B412" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E412" s="15" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A413" s="22"/>
+      <c r="B413" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E413" s="15" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A414" s="22"/>
+      <c r="B414" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C414" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D404" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E404" s="16" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A405" s="23"/>
-      <c r="B405" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D405" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E405" s="16" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A406" s="23"/>
-      <c r="B406" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="D406" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E406" s="16" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A407" s="23"/>
-      <c r="B407" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D407" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E407" s="16" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A408" s="23"/>
-      <c r="B408" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D408" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E408" s="16" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A409" s="23"/>
-      <c r="B409" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C409" s="1" t="s">
+      <c r="D414" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E414" s="15" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A415" s="22"/>
+      <c r="B415" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A416" s="22"/>
+      <c r="C416" s="1"/>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" s="22"/>
+      <c r="C417" s="1"/>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" s="22"/>
+      <c r="C418" s="1"/>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" s="22"/>
+      <c r="B419" s="19"/>
+      <c r="C419" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D419" s="19"/>
+      <c r="E419" s="19"/>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" s="22"/>
+      <c r="B421" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" s="22"/>
+      <c r="B422" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" s="22"/>
+      <c r="B423" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" s="22"/>
+      <c r="B424" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C424" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="D409" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E409" s="16" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A410" s="23"/>
-      <c r="B410" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C410" s="1" t="s">
+      <c r="D424" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" s="22"/>
+      <c r="B425" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" s="22"/>
+      <c r="B426" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E426" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" s="22"/>
+      <c r="B427" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E427" s="15" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" s="22"/>
+      <c r="B428" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E428" s="15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" s="22"/>
+      <c r="B429" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C429" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="D410" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E410" s="16" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A411" s="23"/>
-      <c r="B411" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D411" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E411" s="16" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A412" s="23"/>
-      <c r="B412" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D412" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E412" s="16" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A413" s="23"/>
-      <c r="B413" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D413" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E413" s="16" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A414" s="23"/>
-      <c r="C414" s="1"/>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A415" s="23"/>
-      <c r="B415" s="20"/>
-      <c r="C415" s="20" t="s">
+      <c r="D429" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="D430" s="1"/>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" s="22"/>
+      <c r="B431" s="19"/>
+      <c r="C431" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D415" s="20"/>
-      <c r="E415" s="20"/>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A416" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="B416" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C416" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D416" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A417" s="23"/>
-      <c r="B417" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C417" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D417" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A418" s="23"/>
-      <c r="B418" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D418" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A419" s="23"/>
-      <c r="B419" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C419" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D419" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A420" s="23"/>
-      <c r="B420" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C420" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="D420" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A421" s="23"/>
-      <c r="B421" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C421" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D421" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A422" s="23"/>
-      <c r="B422" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D422" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E422" s="16" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A423" s="23"/>
-      <c r="B423" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D423" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="E423" s="16" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A424" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="D424" s="1"/>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A425" s="23"/>
-      <c r="B425" s="20"/>
-      <c r="C425" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D425" s="20"/>
-      <c r="E425" s="27"/>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A426" s="23"/>
-      <c r="B426" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C426" s="3" t="s">
+      <c r="D431" s="19"/>
+      <c r="E431" s="26"/>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" s="22"/>
+      <c r="B432" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C432" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="D426" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A427" s="23"/>
-      <c r="B427" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C427" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D427" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A428" s="23"/>
-      <c r="B428" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D428" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A429" s="23"/>
-      <c r="B429" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C429" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D429" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A430" s="23"/>
-      <c r="B430" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D430" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A431" s="23"/>
-      <c r="B431" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A432" s="23"/>
-      <c r="B432" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C432" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="D432" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A433" s="23"/>
+      <c r="A433" s="22"/>
       <c r="B433" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C433" s="7" t="s">
+      <c r="C433" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" s="22"/>
+      <c r="B434" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" s="22"/>
+      <c r="B435" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" s="22"/>
+      <c r="B436" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" s="22"/>
+      <c r="B437" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" s="22"/>
+      <c r="B438" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" s="22"/>
+      <c r="B439" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C439" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D433" s="7" t="s">
+      <c r="D439" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A434" s="23"/>
-      <c r="B434" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C434" s="3" t="s">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" s="22"/>
+      <c r="B440" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C440" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D434" s="3" t="s">
+      <c r="D440" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A435" s="23"/>
-      <c r="B435" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C435" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="D435" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="E435" s="16" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A436" s="23"/>
-      <c r="B436" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C436" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="D436" s="14" t="s">
+    <row r="441" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A441" s="22"/>
+      <c r="B441" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C441" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="D441" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E441" s="15" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A442" s="22"/>
+      <c r="B442" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C442" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="D442" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E442" s="15" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A443" s="22"/>
+      <c r="B443" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C443" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="D443" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E436" s="16" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A437" s="23"/>
-      <c r="B437" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C437" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="D437" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="E437" s="16" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A438" s="23"/>
-      <c r="B438" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C438" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="D438" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="E438" s="16" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A439" s="23"/>
-      <c r="B439" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C439" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="D439" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="E439" s="16" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A440" s="23"/>
-      <c r="B440" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D440" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E440" s="13" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A441" s="23"/>
-      <c r="B441" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E441" s="13" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A442" s="23" t="s">
+      <c r="E443" s="15" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444" s="22"/>
+      <c r="B444" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C444" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="D444" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E444" s="30" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" s="22"/>
+      <c r="B445" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E445" s="12" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" s="22"/>
+      <c r="B446" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E446" s="12" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" s="22" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A443" s="23"/>
-      <c r="B443" s="20"/>
-      <c r="C443" s="20" t="s">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" s="22"/>
+      <c r="B448" s="19"/>
+      <c r="C448" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D443" s="20"/>
-      <c r="E443" s="20"/>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A444" s="23"/>
-      <c r="B444" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C444" s="3" t="s">
+      <c r="D448" s="19"/>
+      <c r="E448" s="19"/>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" s="22"/>
+      <c r="B449" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C449" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D444" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A445" s="23"/>
-      <c r="B445" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C445" s="3" t="s">
+      <c r="D449" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" s="22"/>
+      <c r="B450" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C450" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="D445" s="3" t="s">
+      <c r="D450" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A446" s="23"/>
-      <c r="B446" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D446" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E446" s="16" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A447" s="23"/>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A448" s="23" t="s">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" s="22"/>
+      <c r="B451" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E451" s="15" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" s="22"/>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="B448" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D448" s="3" t="s">
+      <c r="B453" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D453" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A449" s="23" t="s">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="B449" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D449" s="3" t="s">
+      <c r="B454" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D454" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A450" s="23" t="s">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="B450" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D450" s="3" t="s">
+      <c r="B455" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D455" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A451" s="23" t="s">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="B451" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D451" s="3" t="s">
+      <c r="B456" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D456" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A452" s="23" t="s">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="B452" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D452" s="3" t="s">
+      <c r="B457" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D457" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A453" s="23" t="s">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="B453" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D453" s="3" t="s">
+      <c r="B458" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D458" s="3" t="s">
         <v>113</v>
       </c>
     </row>
